--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T14:30:00+00:00</t>
+    <t>2025-06-03T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:17:23+00:00</t>
+    <t>2025-06-03T15:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:24:37+00:00</t>
+    <t>2025-06-04T08:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:16:37+00:00</t>
+    <t>2025-06-04T08:27:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:27:13+00:00</t>
+    <t>2025-06-04T08:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:35:18+00:00</t>
+    <t>2025-06-04T08:43:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:43:19+00:00</t>
+    <t>2025-06-04T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:56:07+00:00</t>
+    <t>2025-06-04T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:35:36+00:00</t>
+    <t>2025-08-28T12:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:22:25+00:00</t>
+    <t>2025-08-28T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:34:04+00:00</t>
+    <t>2025-08-28T14:22:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:22:33+00:00</t>
+    <t>2025-08-28T14:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:36:09+00:00</t>
+    <t>2025-08-29T08:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T08:36:57+00:00</t>
+    <t>2025-08-29T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:46:03+00:00</t>
+    <t>2025-09-03T11:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T11:52:57+00:00</t>
+    <t>2025-09-04T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:43:39+00:00</t>
+    <t>2025-09-05T10:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T10:27:45+00:00</t>
+    <t>2025-09-05T14:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:06:57+00:00</t>
+    <t>2025-09-05T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T16:38:52+00:00</t>
+    <t>2025-09-08T06:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:26:35+00:00</t>
+    <t>2025-09-08T07:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T07:31:14+00:00</t>
+    <t>2025-09-08T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:17:51+00:00</t>
+    <t>2025-09-08T16:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T16:35:28+00:00</t>
+    <t>2025-09-09T08:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:15:52+00:00</t>
+    <t>2025-09-09T09:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T09:28:44+00:00</t>
+    <t>2025-09-12T08:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T08:57:32+00:00</t>
+    <t>2025-09-15T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T11:30:19+00:00</t>
+    <t>2025-09-15T14:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:10+00:00</t>
+    <t>2025-09-17T09:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:29:40+00:00</t>
+    <t>2025-09-17T10:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T10:41:45+00:00</t>
+    <t>2025-09-17T12:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T12:21:11+00:00</t>
+    <t>2025-09-17T16:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:26:28+00:00</t>
+    <t>2025-09-17T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:58:51+00:00</t>
+    <t>2025-09-22T08:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:26:26+00:00</t>
+    <t>2025-09-22T08:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:28:48+00:00</t>
+    <t>2025-09-22T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:30:29+00:00</t>
+    <t>2025-09-22T08:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:34:05+00:00</t>
+    <t>2025-09-22T09:39:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:31+00:00</t>
+    <t>2025-09-22T09:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:40+00:00</t>
+    <t>2025-09-22T11:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T11:46:58+00:00</t>
+    <t>2025-09-22T13:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T13:11:45+00:00</t>
+    <t>2025-09-22T14:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:03:07+00:00</t>
+    <t>2025-09-22T15:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:14:25+00:00</t>
+    <t>2025-09-22T16:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:06:01+00:00</t>
+    <t>2025-09-22T16:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:51:16+00:00</t>
+    <t>2025-09-22T17:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:06:55+00:00</t>
+    <t>2025-09-22T17:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:32:58+00:00</t>
+    <t>2025-09-22T17:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:48:18+00:00</t>
+    <t>2025-09-22T18:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T18:03:45+00:00</t>
+    <t>2025-09-23T08:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:18:09+00:00</t>
+    <t>2025-09-23T08:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:32:43+00:00</t>
+    <t>2025-09-23T08:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:41:48+00:00</t>
+    <t>2025-09-23T08:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:42:22+00:00</t>
+    <t>2025-09-23T08:51:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:51:27+00:00</t>
+    <t>2025-09-23T08:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:52:02+00:00</t>
+    <t>2025-09-23T10:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:06:45+00:00</t>
+    <t>2025-09-23T10:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:12+00:00</t>
+    <t>2025-09-23T10:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:52+00:00</t>
+    <t>2025-09-23T10:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:20:32+00:00</t>
+    <t>2025-09-23T10:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:26:15+00:00</t>
+    <t>2025-09-23T10:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:43:17+00:00</t>
+    <t>2025-09-23T11:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:03:07+00:00</t>
+    <t>2025-09-23T11:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:44:28+00:00</t>
+    <t>2025-09-23T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:00:42+00:00</t>
+    <t>2025-09-23T12:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:55:27+00:00</t>
+    <t>2025-09-23T13:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:35:37+00:00</t>
+    <t>2025-09-23T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:01:22+00:00</t>
+    <t>2025-09-23T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:15:20+00:00</t>
+    <t>2025-09-23T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:32:14+00:00</t>
+    <t>2025-09-23T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:14:11+00:00</t>
+    <t>2025-09-23T16:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:36:06+00:00</t>
+    <t>2025-09-23T17:01:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T17:01:11+00:00</t>
+    <t>2025-09-24T09:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:25:22+00:00</t>
+    <t>2025-09-24T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:35:41+00:00</t>
+    <t>2025-09-24T10:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:48:34+00:00</t>
+    <t>2025-09-24T11:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T11:09:16+00:00</t>
+    <t>2025-09-24T16:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:01:08+00:00</t>
+    <t>2025-09-24T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:38:52+00:00</t>
+    <t>2025-09-25T09:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:51:46+00:00</t>
+    <t>2025-09-25T09:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:12+00:00</t>
+    <t>2025-09-25T10:18:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:18:49+00:00</t>
+    <t>2025-09-25T10:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:34:09+00:00</t>
+    <t>2025-09-25T11:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T11:37:39+00:00</t>
+    <t>2025-09-25T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T13:52:06+00:00</t>
+    <t>2025-09-25T14:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T14:17:34+00:00</t>
+    <t>2025-09-25T15:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T15:24:58+00:00</t>
+    <t>2025-09-26T07:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:24:51+00:00</t>
+    <t>2025-09-26T07:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:49:53+00:00</t>
+    <t>2025-09-26T08:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:03:06+00:00</t>
+    <t>2025-09-29T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T10:55:47+00:00</t>
+    <t>2025-09-29T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:14:34+00:00</t>
+    <t>2025-09-29T11:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:58:57+00:00</t>
+    <t>2025-09-29T12:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T12:25:49+00:00</t>
+    <t>2025-09-29T16:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T16:14:38+00:00</t>
+    <t>2025-09-30T09:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T09:58:20+00:00</t>
+    <t>2025-10-01T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T11:45:35+00:00</t>
+    <t>2025-10-02T08:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:30:31+00:00</t>
+    <t>2025-10-02T08:31:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:31:49+00:00</t>
+    <t>2025-10-02T08:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:40:06+00:00</t>
+    <t>2025-10-02T08:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:55:17+00:00</t>
+    <t>2025-10-02T09:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:37:00+00:00</t>
+    <t>2025-10-02T10:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:13:04+00:00</t>
+    <t>2025-10-02T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:17:19+00:00</t>
+    <t>2025-10-02T10:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:35:00+00:00</t>
+    <t>2025-10-02T10:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:46:31+00:00</t>
+    <t>2025-10-02T10:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:50:34+00:00</t>
+    <t>2025-10-02T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:55:47+00:00</t>
+    <t>2025-10-02T11:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:00:11+00:00</t>
+    <t>2025-10-02T11:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:01:02+00:00</t>
+    <t>2025-10-02T11:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:30:52+00:00</t>
+    <t>2025-10-02T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:45:35+00:00</t>
+    <t>2025-10-02T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:46:56+00:00</t>
+    <t>2025-10-02T12:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:14+00:00</t>
+    <t>2025-10-02T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:42+00:00</t>
+    <t>2025-10-03T09:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T09:35:04+00:00</t>
+    <t>2025-10-03T10:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T10:22:41+00:00</t>
+    <t>2025-10-03T16:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:25:29+00:00</t>
+    <t>2025-10-03T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:32:49+00:00</t>
+    <t>2025-10-06T07:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:31:52+00:00</t>
+    <t>2025-10-07</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,19 +84,25 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Defines the SNOMED CT codes for final stroke diagnoses, including specific types and etiologies where applicable.</t>
+    <t>SNOMED CT concepts representing final stroke-related diagnoses intended for use in Condition.code (and similar elements) within this IG. The scope covers ischemic stroke, intracerebral hemorrhage, subarachnoid hemorrhage, cerebral venous thrombosis, and transient ischemic attack (TIA). This value set is designed to support consistent capture, validation, analytics, and decision support. Implementers should expand against a terminology server using the appropriate SNOMED CT edition/version and preferred language(s) for display. Localizations or national derivatives MAY provide additional designations without altering the canonical definition. This value set is not intended for history-of, screening, or procedural concepts.</t>
   </si>
   <si>
     <t>Purpose</t>
   </si>
   <si>
+    <t>To provide a consistent set of SNOMED CT concepts for coding definitive stroke-related diagnoses in this IG.</t>
+  </si>
+  <si>
     <t>Copyright</t>
   </si>
   <si>
+    <t>This value set includes SNOMED CT® content. SNOMED CT® is distributed by SNOMED International.</t>
+  </si>
+  <si>
     <t>Immutable</t>
   </si>
   <si>
-    <t>BooleanType[null]</t>
+    <t>BooleanType[false]</t>
   </si>
   <si>
     <t>Concept</t>
@@ -328,66 +337,72 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -409,66 +424,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
